--- a/cloud/重要事件.xlsx
+++ b/cloud/重要事件.xlsx
@@ -4,39 +4,48 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2021" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
+    <sheet name="模板" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>时间</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>除夕</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>建党节</t>
+  </si>
+  <si>
+    <t>建军节</t>
+  </si>
+  <si>
+    <t>国庆节</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
     <t>地点</t>
-  </si>
-  <si>
-    <t>g7</t>
-  </si>
-  <si>
-    <t>未知</t>
-  </si>
-  <si>
-    <t>g20</t>
-  </si>
-  <si>
-    <t>沙特</t>
   </si>
 </sst>
 </file>
@@ -49,7 +58,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,10 +67,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,10 +97,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,14 +112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,14 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -135,21 +145,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,8 +174,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,8 +219,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,13 +236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +260,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +332,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,37 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,104 +426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -412,13 +436,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,15 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -458,24 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +514,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,159 +539,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,48 +1065,1871 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.375"/>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="4" customFormat="1" ht="20.25" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>20200901</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
+        <v>20210101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
+        <v>20210102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
+        <v>20210103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>20210104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>20210105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
+        <v>20210106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>20210107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>20210108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>20210109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>20210110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>20210111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>20210112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>20210113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>20210114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>20210115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>20210116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>20210117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>20210118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>20210119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>20210120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>20210121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>20210122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>20210123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>20210124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>20210125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>20210126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>20210127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>20210128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>20210129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>20210130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
+        <v>20210131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>20210201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>20210202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>20210204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>20210205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>20210206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>20210207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>20210208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>20210209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>20210210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>20210211</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>20210212</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>20201121</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>20210213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>20210214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>20210216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>20210217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>20210218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>20210219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>20210220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>20210221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>20210222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>20210223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>20210224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>20210225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>20210226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>20210228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>20210301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>20210302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>20210303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>20210304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>20210305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>20210306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>20210307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>20210308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>20210309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2">
+        <v>20210310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2">
+        <v>20210311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2">
+        <v>20210312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2">
+        <v>20210313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>20210314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2">
+        <v>20210315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2">
+        <v>20210316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2">
+        <v>20210317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2">
+        <v>20210318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2">
+        <v>20210319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2">
+        <v>20210320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2">
+        <v>20210321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2">
+        <v>20210322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2">
+        <v>20210323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2">
+        <v>20210324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2">
+        <v>20210325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2">
+        <v>20210326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2">
+        <v>20210327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2">
+        <v>20210328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2">
+        <v>20210329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2">
+        <v>20210330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2">
+        <v>20210331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2">
+        <v>20210401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2">
+        <v>20210402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2">
+        <v>20210403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2">
+        <v>20210404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2">
+        <v>20210405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2">
+        <v>20210406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2">
+        <v>20210407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2">
+        <v>20210408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2">
+        <v>20210409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2">
+        <v>20210410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2">
+        <v>20210411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2">
+        <v>20210412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2">
+        <v>20210413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2">
+        <v>20210414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2">
+        <v>20210415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2">
+        <v>20210416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2">
+        <v>20210417</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2">
+        <v>20210418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2">
+        <v>20210419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2">
+        <v>20210420</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2">
+        <v>20210421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2">
+        <v>20210422</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2">
+        <v>20210423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2">
+        <v>20210424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2">
+        <v>20210425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2">
+        <v>20210426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2">
+        <v>20210427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2">
+        <v>20210428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2">
+        <v>20210429</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2">
+        <v>20210430</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2">
+        <v>20210501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2">
+        <v>20210502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2">
+        <v>20210503</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2">
+        <v>20210504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2">
+        <v>20210505</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2">
+        <v>20210506</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2">
+        <v>20210507</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2">
+        <v>20210508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2">
+        <v>20210509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2">
+        <v>20210510</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2">
+        <v>20210511</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2">
+        <v>20210512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2">
+        <v>20210513</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2">
+        <v>20210514</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2">
+        <v>20210515</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2">
+        <v>20210516</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2">
+        <v>20210517</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2">
+        <v>20210518</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2">
+        <v>20210519</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2">
+        <v>20210520</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2">
+        <v>20210521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2">
+        <v>20210522</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2">
+        <v>20210523</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2">
+        <v>20210524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2">
+        <v>20210525</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2">
+        <v>20210526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2">
+        <v>20210527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2">
+        <v>20210528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2">
+        <v>20210529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2">
+        <v>20210530</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2">
+        <v>20210531</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2">
+        <v>20210601</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2">
+        <v>20210602</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2">
+        <v>20210603</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2">
+        <v>20210604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2">
+        <v>20210605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2">
+        <v>20210606</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2">
+        <v>20210607</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2">
+        <v>20210608</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2">
+        <v>20210609</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2">
+        <v>20210610</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2">
+        <v>20210611</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2">
+        <v>20210612</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2">
+        <v>20210613</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2">
+        <v>20210614</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2">
+        <v>20210615</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2">
+        <v>20210616</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2">
+        <v>20210617</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2">
+        <v>20210618</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2">
+        <v>20210619</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2">
+        <v>20210620</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2">
+        <v>20210621</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2">
+        <v>20210622</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2">
+        <v>20210623</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2">
+        <v>20210624</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2">
+        <v>20210625</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2">
+        <v>20210626</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2">
+        <v>20210627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2">
+        <v>20210628</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2">
+        <v>20210629</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2">
+        <v>20210630</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>20210701</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2">
+        <v>20210702</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2">
+        <v>20210703</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2">
+        <v>20210704</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2">
+        <v>20210705</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2">
+        <v>20210706</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2">
+        <v>20210707</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2">
+        <v>20210708</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2">
+        <v>20210709</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2">
+        <v>20210710</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2">
+        <v>20210711</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2">
+        <v>20210712</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2">
+        <v>20210713</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2">
+        <v>20210714</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2">
+        <v>20210715</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2">
+        <v>20210716</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2">
+        <v>20210717</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2">
+        <v>20210718</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2">
+        <v>20210719</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2">
+        <v>20210720</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2">
+        <v>20210721</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2">
+        <v>20210722</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2">
+        <v>20210723</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2">
+        <v>20210724</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2">
+        <v>20210725</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2">
+        <v>20210726</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2">
+        <v>20210727</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2">
+        <v>20210728</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2">
+        <v>20210729</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2">
+        <v>20210730</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2">
+        <v>20210731</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>20210801</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2">
+        <v>20210802</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2">
+        <v>20210803</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2">
+        <v>20210804</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2">
+        <v>20210805</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2">
+        <v>20210806</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2">
+        <v>20210807</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2">
+        <v>20210808</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2">
+        <v>20210809</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2">
+        <v>20210810</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2">
+        <v>20210812</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2">
+        <v>20210813</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2">
+        <v>20210814</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2">
+        <v>20210815</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2">
+        <v>20210816</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2">
+        <v>20210817</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2">
+        <v>20210818</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2">
+        <v>20210819</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="2">
+        <v>20210820</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2">
+        <v>20210821</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="2">
+        <v>20210822</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="2">
+        <v>20210823</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2">
+        <v>20210824</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2">
+        <v>20210825</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="2">
+        <v>20210826</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="2">
+        <v>20210827</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2">
+        <v>20210828</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2">
+        <v>20210829</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2">
+        <v>20210830</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2">
+        <v>20210831</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2">
+        <v>20210901</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2">
+        <v>20210902</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2">
+        <v>20210903</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="2">
+        <v>20210904</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="2">
+        <v>20210905</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2">
+        <v>20210906</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="2">
+        <v>20210907</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="2">
+        <v>20210908</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="2">
+        <v>20210909</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="2">
+        <v>20210910</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="2">
+        <v>20210911</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2">
+        <v>20210912</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="2">
+        <v>20210913</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2">
+        <v>20210914</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="2">
+        <v>20210915</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="2">
+        <v>20210916</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="2">
+        <v>20210917</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2">
+        <v>20210918</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="2">
+        <v>20210919</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="2">
+        <v>20210920</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="2">
+        <v>20210921</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2">
+        <v>20210922</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2">
+        <v>20210923</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="2">
+        <v>20210924</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2">
+        <v>20210925</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="2">
+        <v>20210926</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2">
+        <v>20210927</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="2">
+        <v>20210928</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="2">
+        <v>20210929</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="2">
+        <v>20210930</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>20211001</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2">
+        <v>20211002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2">
+        <v>20211003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="2">
+        <v>20211004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="2">
+        <v>20211005</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="2">
+        <v>20211006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="2">
+        <v>20211007</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="2">
+        <v>20211008</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="2">
+        <v>20211009</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="2">
+        <v>20211010</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="2">
+        <v>20211011</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="2">
+        <v>20211012</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="2">
+        <v>20211013</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="2">
+        <v>20211014</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="2">
+        <v>20211015</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="2">
+        <v>20211016</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="2">
+        <v>20211017</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="2">
+        <v>20211018</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="2">
+        <v>20211019</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="2">
+        <v>20211020</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="2">
+        <v>20211021</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="2">
+        <v>20211022</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="2">
+        <v>20211023</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="2">
+        <v>20211024</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="2">
+        <v>20211025</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="2">
+        <v>20211026</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="2">
+        <v>20211027</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="2">
+        <v>20211028</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="2">
+        <v>20211029</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="2">
+        <v>20211030</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="2">
+        <v>20211031</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="2">
+        <v>20211101</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="2">
+        <v>20211102</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="2">
+        <v>20211103</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="2">
+        <v>20211104</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="2">
+        <v>20211105</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="2">
+        <v>20211106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="2">
+        <v>20211107</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="2">
+        <v>20211108</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="2">
+        <v>20211109</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="2">
+        <v>20211110</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="2">
+        <v>20211111</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="2">
+        <v>20211112</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="2">
+        <v>20211113</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="2">
+        <v>20211114</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="2">
+        <v>20211115</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="2">
+        <v>20211116</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="2">
+        <v>20211117</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="2">
+        <v>20211118</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="2">
+        <v>20211119</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="2">
+        <v>20211120</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="2">
+        <v>20211121</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="2">
+        <v>20211122</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="2">
+        <v>20211123</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="2">
+        <v>20211124</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="2">
+        <v>20211125</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="2">
+        <v>20211126</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="2">
+        <v>20211127</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="2">
+        <v>20211128</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="2">
+        <v>20211129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="2">
+        <v>20211130</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="2">
+        <v>20211201</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="2">
+        <v>20211202</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="2">
+        <v>20211203</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="2">
+        <v>20211204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="2">
+        <v>20211205</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="2">
+        <v>20211206</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="2">
+        <v>20211207</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="2">
+        <v>20211208</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="2">
+        <v>20211209</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="2">
+        <v>20211210</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="2">
+        <v>20211211</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="2">
+        <v>20211212</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="2">
+        <v>20211213</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="2">
+        <v>20211214</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="2">
+        <v>20211215</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="2">
+        <v>20211216</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="2">
+        <v>20211217</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="2">
+        <v>20211218</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="2">
+        <v>20211219</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="2">
+        <v>20211220</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="2">
+        <v>20211221</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="2">
+        <v>20211222</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="2">
+        <v>20211223</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="2">
+        <v>20211224</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="2">
+        <v>20211225</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="2">
+        <v>20211226</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="2">
+        <v>20211227</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="2">
+        <v>20211228</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="2">
+        <v>20211229</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="2">
+        <v>20211230</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="2">
+        <v>20211231</v>
       </c>
     </row>
   </sheetData>
@@ -1082,14 +2959,1855 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:1">
+      <c r="A2" s="2">
+        <v>20210101</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:1">
+      <c r="A3" s="2">
+        <v>20210102</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:1">
+      <c r="A4" s="2">
+        <v>20210103</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:1">
+      <c r="A5" s="2">
+        <v>20210104</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:1">
+      <c r="A6" s="2">
+        <v>20210105</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="2">
+        <v>20210106</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:1">
+      <c r="A8" s="2">
+        <v>20210107</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:1">
+      <c r="A9" s="2">
+        <v>20210108</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:1">
+      <c r="A10" s="2">
+        <v>20210109</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:1">
+      <c r="A11" s="2">
+        <v>20210110</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:1">
+      <c r="A12" s="2">
+        <v>20210111</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="2">
+        <v>20210112</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:1">
+      <c r="A14" s="2">
+        <v>20210113</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:1">
+      <c r="A15" s="2">
+        <v>20210114</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="2">
+        <v>20210115</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="2">
+        <v>20210116</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:1">
+      <c r="A18" s="2">
+        <v>20210117</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:1">
+      <c r="A19" s="2">
+        <v>20210118</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:1">
+      <c r="A20" s="2">
+        <v>20210119</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:1">
+      <c r="A21" s="2">
+        <v>20210120</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:1">
+      <c r="A22" s="2">
+        <v>20210121</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:1">
+      <c r="A23" s="2">
+        <v>20210122</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:1">
+      <c r="A24" s="2">
+        <v>20210123</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:1">
+      <c r="A25" s="2">
+        <v>20210124</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:1">
+      <c r="A26" s="2">
+        <v>20210125</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:1">
+      <c r="A27" s="2">
+        <v>20210126</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="2">
+        <v>20210127</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:1">
+      <c r="A29" s="2">
+        <v>20210128</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:1">
+      <c r="A30" s="2">
+        <v>20210129</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:1">
+      <c r="A31" s="2">
+        <v>20210130</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:1">
+      <c r="A32" s="2">
+        <v>20210131</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:1">
+      <c r="A33" s="2">
+        <v>20210201</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:1">
+      <c r="A34" s="2">
+        <v>20210202</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:1">
+      <c r="A35" s="2">
+        <v>20210203</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:1">
+      <c r="A36" s="2">
+        <v>20210204</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:1">
+      <c r="A37" s="2">
+        <v>20210205</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:1">
+      <c r="A38" s="2">
+        <v>20210206</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:1">
+      <c r="A39" s="2">
+        <v>20210207</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:1">
+      <c r="A40" s="2">
+        <v>20210208</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:1">
+      <c r="A41" s="2">
+        <v>20210209</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:1">
+      <c r="A42" s="2">
+        <v>20210210</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:1">
+      <c r="A43" s="2">
+        <v>20210211</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:1">
+      <c r="A44" s="2">
+        <v>20210212</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:1">
+      <c r="A45" s="2">
+        <v>20210213</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:1">
+      <c r="A46" s="2">
+        <v>20210214</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:1">
+      <c r="A47" s="2">
+        <v>20210215</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:1">
+      <c r="A48" s="2">
+        <v>20210216</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:1">
+      <c r="A49" s="2">
+        <v>20210217</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:1">
+      <c r="A50" s="2">
+        <v>20210218</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:1">
+      <c r="A51" s="2">
+        <v>20210219</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:1">
+      <c r="A52" s="2">
+        <v>20210220</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:1">
+      <c r="A53" s="2">
+        <v>20210221</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:1">
+      <c r="A54" s="2">
+        <v>20210222</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:1">
+      <c r="A55" s="2">
+        <v>20210223</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:1">
+      <c r="A56" s="2">
+        <v>20210224</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:1">
+      <c r="A57" s="2">
+        <v>20210225</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:1">
+      <c r="A58" s="2">
+        <v>20210226</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:1">
+      <c r="A59" s="2">
+        <v>20210227</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:1">
+      <c r="A60" s="2">
+        <v>20210228</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:1">
+      <c r="A61" s="2">
+        <v>20210301</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:1">
+      <c r="A62" s="2">
+        <v>20210302</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="1:1">
+      <c r="A63" s="2">
+        <v>20210303</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:1">
+      <c r="A64" s="2">
+        <v>20210304</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:1">
+      <c r="A65" s="2">
+        <v>20210305</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:1">
+      <c r="A66" s="2">
+        <v>20210306</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:1">
+      <c r="A67" s="2">
+        <v>20210307</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:1">
+      <c r="A68" s="2">
+        <v>20210308</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:1">
+      <c r="A69" s="2">
+        <v>20210309</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:1">
+      <c r="A70" s="2">
+        <v>20210310</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:1">
+      <c r="A71" s="2">
+        <v>20210311</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:1">
+      <c r="A72" s="2">
+        <v>20210312</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:1">
+      <c r="A73" s="2">
+        <v>20210313</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:1">
+      <c r="A74" s="2">
+        <v>20210314</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:1">
+      <c r="A75" s="2">
+        <v>20210315</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:1">
+      <c r="A76" s="2">
+        <v>20210316</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:1">
+      <c r="A77" s="2">
+        <v>20210317</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:1">
+      <c r="A78" s="2">
+        <v>20210318</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:1">
+      <c r="A79" s="2">
+        <v>20210319</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:1">
+      <c r="A80" s="2">
+        <v>20210320</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="1:1">
+      <c r="A81" s="2">
+        <v>20210321</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:1">
+      <c r="A82" s="2">
+        <v>20210322</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="1:1">
+      <c r="A83" s="2">
+        <v>20210323</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:1">
+      <c r="A84" s="2">
+        <v>20210324</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:1">
+      <c r="A85" s="2">
+        <v>20210325</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:1">
+      <c r="A86" s="2">
+        <v>20210326</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:1">
+      <c r="A87" s="2">
+        <v>20210327</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="1:1">
+      <c r="A88" s="2">
+        <v>20210328</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="1:1">
+      <c r="A89" s="2">
+        <v>20210329</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="1:1">
+      <c r="A90" s="2">
+        <v>20210330</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:1">
+      <c r="A91" s="2">
+        <v>20210331</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:1">
+      <c r="A92" s="2">
+        <v>20210401</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" spans="1:1">
+      <c r="A93" s="2">
+        <v>20210402</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" spans="1:1">
+      <c r="A94" s="2">
+        <v>20210403</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:1">
+      <c r="A95" s="2">
+        <v>20210404</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1" spans="1:1">
+      <c r="A96" s="2">
+        <v>20210405</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" spans="1:1">
+      <c r="A97" s="2">
+        <v>20210406</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" spans="1:1">
+      <c r="A98" s="2">
+        <v>20210407</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" spans="1:1">
+      <c r="A99" s="2">
+        <v>20210408</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:1">
+      <c r="A100" s="2">
+        <v>20210409</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="1:1">
+      <c r="A101" s="2">
+        <v>20210410</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:1">
+      <c r="A102" s="2">
+        <v>20210411</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:1">
+      <c r="A103" s="2">
+        <v>20210412</v>
+      </c>
+    </row>
+    <row r="104" s="2" customFormat="1" spans="1:1">
+      <c r="A104" s="2">
+        <v>20210413</v>
+      </c>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:1">
+      <c r="A105" s="2">
+        <v>20210414</v>
+      </c>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:1">
+      <c r="A106" s="2">
+        <v>20210415</v>
+      </c>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="1:1">
+      <c r="A107" s="2">
+        <v>20210416</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="1:1">
+      <c r="A108" s="2">
+        <v>20210417</v>
+      </c>
+    </row>
+    <row r="109" s="2" customFormat="1" spans="1:1">
+      <c r="A109" s="2">
+        <v>20210418</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="1" spans="1:1">
+      <c r="A110" s="2">
+        <v>20210419</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="1:1">
+      <c r="A111" s="2">
+        <v>20210420</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="1:1">
+      <c r="A112" s="2">
+        <v>20210421</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="1" spans="1:1">
+      <c r="A113" s="2">
+        <v>20210422</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="1:1">
+      <c r="A114" s="2">
+        <v>20210423</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="1" spans="1:1">
+      <c r="A115" s="2">
+        <v>20210424</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="1:1">
+      <c r="A116" s="2">
+        <v>20210425</v>
+      </c>
+    </row>
+    <row r="117" s="2" customFormat="1" spans="1:1">
+      <c r="A117" s="2">
+        <v>20210426</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="1" spans="1:1">
+      <c r="A118" s="2">
+        <v>20210427</v>
+      </c>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:1">
+      <c r="A119" s="2">
+        <v>20210428</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" spans="1:1">
+      <c r="A120" s="2">
+        <v>20210429</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="1" spans="1:1">
+      <c r="A121" s="2">
+        <v>20210430</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:1">
+      <c r="A122" s="2">
+        <v>20210501</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" spans="1:1">
+      <c r="A123" s="2">
+        <v>20210502</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" spans="1:1">
+      <c r="A124" s="2">
+        <v>20210503</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" spans="1:1">
+      <c r="A125" s="2">
+        <v>20210504</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="1:1">
+      <c r="A126" s="2">
+        <v>20210505</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="1" spans="1:1">
+      <c r="A127" s="2">
+        <v>20210506</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="1" spans="1:1">
+      <c r="A128" s="2">
+        <v>20210507</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="1" spans="1:1">
+      <c r="A129" s="2">
+        <v>20210508</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="1" spans="1:1">
+      <c r="A130" s="2">
+        <v>20210509</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" spans="1:1">
+      <c r="A131" s="2">
+        <v>20210510</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="1" spans="1:1">
+      <c r="A132" s="2">
+        <v>20210511</v>
+      </c>
+    </row>
+    <row r="133" s="2" customFormat="1" spans="1:1">
+      <c r="A133" s="2">
+        <v>20210512</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="1" spans="1:1">
+      <c r="A134" s="2">
+        <v>20210513</v>
+      </c>
+    </row>
+    <row r="135" s="2" customFormat="1" spans="1:1">
+      <c r="A135" s="2">
+        <v>20210514</v>
+      </c>
+    </row>
+    <row r="136" s="2" customFormat="1" spans="1:1">
+      <c r="A136" s="2">
+        <v>20210515</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="1" spans="1:1">
+      <c r="A137" s="2">
+        <v>20210516</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="1" spans="1:1">
+      <c r="A138" s="2">
+        <v>20210517</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="1" spans="1:1">
+      <c r="A139" s="2">
+        <v>20210518</v>
+      </c>
+    </row>
+    <row r="140" s="2" customFormat="1" spans="1:1">
+      <c r="A140" s="2">
+        <v>20210519</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="1" spans="1:1">
+      <c r="A141" s="2">
+        <v>20210520</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" spans="1:1">
+      <c r="A142" s="2">
+        <v>20210521</v>
+      </c>
+    </row>
+    <row r="143" s="2" customFormat="1" spans="1:1">
+      <c r="A143" s="2">
+        <v>20210522</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="1" spans="1:1">
+      <c r="A144" s="2">
+        <v>20210523</v>
+      </c>
+    </row>
+    <row r="145" s="2" customFormat="1" spans="1:1">
+      <c r="A145" s="2">
+        <v>20210524</v>
+      </c>
+    </row>
+    <row r="146" s="2" customFormat="1" spans="1:1">
+      <c r="A146" s="2">
+        <v>20210525</v>
+      </c>
+    </row>
+    <row r="147" s="2" customFormat="1" spans="1:1">
+      <c r="A147" s="2">
+        <v>20210526</v>
+      </c>
+    </row>
+    <row r="148" s="2" customFormat="1" spans="1:1">
+      <c r="A148" s="2">
+        <v>20210527</v>
+      </c>
+    </row>
+    <row r="149" s="2" customFormat="1" spans="1:1">
+      <c r="A149" s="2">
+        <v>20210528</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="1" spans="1:1">
+      <c r="A150" s="2">
+        <v>20210529</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="1" spans="1:1">
+      <c r="A151" s="2">
+        <v>20210530</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="1" spans="1:1">
+      <c r="A152" s="2">
+        <v>20210531</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" spans="1:1">
+      <c r="A153" s="2">
+        <v>20210601</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" spans="1:1">
+      <c r="A154" s="2">
+        <v>20210602</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="1" spans="1:1">
+      <c r="A155" s="2">
+        <v>20210603</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="1" spans="1:1">
+      <c r="A156" s="2">
+        <v>20210604</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" spans="1:1">
+      <c r="A157" s="2">
+        <v>20210605</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" spans="1:1">
+      <c r="A158" s="2">
+        <v>20210606</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" spans="1:1">
+      <c r="A159" s="2">
+        <v>20210607</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="1" spans="1:1">
+      <c r="A160" s="2">
+        <v>20210608</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="1" spans="1:1">
+      <c r="A161" s="2">
+        <v>20210609</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="1" spans="1:1">
+      <c r="A162" s="2">
+        <v>20210610</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="1" spans="1:1">
+      <c r="A163" s="2">
+        <v>20210611</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="1" spans="1:1">
+      <c r="A164" s="2">
+        <v>20210612</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="1" spans="1:1">
+      <c r="A165" s="2">
+        <v>20210613</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" spans="1:1">
+      <c r="A166" s="2">
+        <v>20210614</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1" spans="1:1">
+      <c r="A167" s="2">
+        <v>20210615</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="1" spans="1:1">
+      <c r="A168" s="2">
+        <v>20210616</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" spans="1:1">
+      <c r="A169" s="2">
+        <v>20210617</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" spans="1:1">
+      <c r="A170" s="2">
+        <v>20210618</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" spans="1:1">
+      <c r="A171" s="2">
+        <v>20210619</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" spans="1:1">
+      <c r="A172" s="2">
+        <v>20210620</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="1" spans="1:1">
+      <c r="A173" s="2">
+        <v>20210621</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="1" spans="1:1">
+      <c r="A174" s="2">
+        <v>20210622</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1" spans="1:1">
+      <c r="A175" s="2">
+        <v>20210623</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" spans="1:1">
+      <c r="A176" s="2">
+        <v>20210624</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="1" spans="1:1">
+      <c r="A177" s="2">
+        <v>20210625</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="1" spans="1:1">
+      <c r="A178" s="2">
+        <v>20210626</v>
+      </c>
+    </row>
+    <row r="179" s="2" customFormat="1" spans="1:1">
+      <c r="A179" s="2">
+        <v>20210627</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="1" spans="1:1">
+      <c r="A180" s="2">
+        <v>20210628</v>
+      </c>
+    </row>
+    <row r="181" s="2" customFormat="1" spans="1:1">
+      <c r="A181" s="2">
+        <v>20210629</v>
+      </c>
+    </row>
+    <row r="182" s="2" customFormat="1" spans="1:1">
+      <c r="A182" s="2">
+        <v>20210630</v>
+      </c>
+    </row>
+    <row r="183" s="2" customFormat="1" spans="1:1">
+      <c r="A183" s="2">
+        <v>20210701</v>
+      </c>
+    </row>
+    <row r="184" s="2" customFormat="1" spans="1:1">
+      <c r="A184" s="2">
+        <v>20210702</v>
+      </c>
+    </row>
+    <row r="185" s="2" customFormat="1" spans="1:1">
+      <c r="A185" s="2">
+        <v>20210703</v>
+      </c>
+    </row>
+    <row r="186" s="2" customFormat="1" spans="1:1">
+      <c r="A186" s="2">
+        <v>20210704</v>
+      </c>
+    </row>
+    <row r="187" s="2" customFormat="1" spans="1:1">
+      <c r="A187" s="2">
+        <v>20210705</v>
+      </c>
+    </row>
+    <row r="188" s="2" customFormat="1" spans="1:1">
+      <c r="A188" s="2">
+        <v>20210706</v>
+      </c>
+    </row>
+    <row r="189" s="2" customFormat="1" spans="1:1">
+      <c r="A189" s="2">
+        <v>20210707</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:1">
+      <c r="A190" s="2">
+        <v>20210708</v>
+      </c>
+    </row>
+    <row r="191" s="2" customFormat="1" spans="1:1">
+      <c r="A191" s="2">
+        <v>20210709</v>
+      </c>
+    </row>
+    <row r="192" s="2" customFormat="1" spans="1:1">
+      <c r="A192" s="2">
+        <v>20210710</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="1" spans="1:1">
+      <c r="A193" s="2">
+        <v>20210711</v>
+      </c>
+    </row>
+    <row r="194" s="2" customFormat="1" spans="1:1">
+      <c r="A194" s="2">
+        <v>20210712</v>
+      </c>
+    </row>
+    <row r="195" s="2" customFormat="1" spans="1:1">
+      <c r="A195" s="2">
+        <v>20210713</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="1" spans="1:1">
+      <c r="A196" s="2">
+        <v>20210714</v>
+      </c>
+    </row>
+    <row r="197" s="2" customFormat="1" spans="1:1">
+      <c r="A197" s="2">
+        <v>20210715</v>
+      </c>
+    </row>
+    <row r="198" s="2" customFormat="1" spans="1:1">
+      <c r="A198" s="2">
+        <v>20210716</v>
+      </c>
+    </row>
+    <row r="199" s="2" customFormat="1" spans="1:1">
+      <c r="A199" s="2">
+        <v>20210717</v>
+      </c>
+    </row>
+    <row r="200" s="2" customFormat="1" spans="1:1">
+      <c r="A200" s="2">
+        <v>20210718</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="1" spans="1:1">
+      <c r="A201" s="2">
+        <v>20210719</v>
+      </c>
+    </row>
+    <row r="202" s="2" customFormat="1" spans="1:1">
+      <c r="A202" s="2">
+        <v>20210720</v>
+      </c>
+    </row>
+    <row r="203" s="2" customFormat="1" spans="1:1">
+      <c r="A203" s="2">
+        <v>20210721</v>
+      </c>
+    </row>
+    <row r="204" s="2" customFormat="1" spans="1:1">
+      <c r="A204" s="2">
+        <v>20210722</v>
+      </c>
+    </row>
+    <row r="205" s="2" customFormat="1" spans="1:1">
+      <c r="A205" s="2">
+        <v>20210723</v>
+      </c>
+    </row>
+    <row r="206" s="2" customFormat="1" spans="1:1">
+      <c r="A206" s="2">
+        <v>20210724</v>
+      </c>
+    </row>
+    <row r="207" s="2" customFormat="1" spans="1:1">
+      <c r="A207" s="2">
+        <v>20210725</v>
+      </c>
+    </row>
+    <row r="208" s="2" customFormat="1" spans="1:1">
+      <c r="A208" s="2">
+        <v>20210726</v>
+      </c>
+    </row>
+    <row r="209" s="2" customFormat="1" spans="1:1">
+      <c r="A209" s="2">
+        <v>20210727</v>
+      </c>
+    </row>
+    <row r="210" s="2" customFormat="1" spans="1:1">
+      <c r="A210" s="2">
+        <v>20210728</v>
+      </c>
+    </row>
+    <row r="211" s="2" customFormat="1" spans="1:1">
+      <c r="A211" s="2">
+        <v>20210729</v>
+      </c>
+    </row>
+    <row r="212" s="2" customFormat="1" spans="1:1">
+      <c r="A212" s="2">
+        <v>20210730</v>
+      </c>
+    </row>
+    <row r="213" s="2" customFormat="1" spans="1:1">
+      <c r="A213" s="2">
+        <v>20210731</v>
+      </c>
+    </row>
+    <row r="214" s="2" customFormat="1" spans="1:1">
+      <c r="A214" s="2">
+        <v>20210801</v>
+      </c>
+    </row>
+    <row r="215" s="2" customFormat="1" spans="1:1">
+      <c r="A215" s="2">
+        <v>20210802</v>
+      </c>
+    </row>
+    <row r="216" s="2" customFormat="1" spans="1:1">
+      <c r="A216" s="2">
+        <v>20210803</v>
+      </c>
+    </row>
+    <row r="217" s="2" customFormat="1" spans="1:1">
+      <c r="A217" s="2">
+        <v>20210804</v>
+      </c>
+    </row>
+    <row r="218" s="2" customFormat="1" spans="1:1">
+      <c r="A218" s="2">
+        <v>20210805</v>
+      </c>
+    </row>
+    <row r="219" s="2" customFormat="1" spans="1:1">
+      <c r="A219" s="2">
+        <v>20210806</v>
+      </c>
+    </row>
+    <row r="220" s="2" customFormat="1" spans="1:1">
+      <c r="A220" s="2">
+        <v>20210807</v>
+      </c>
+    </row>
+    <row r="221" s="2" customFormat="1" spans="1:1">
+      <c r="A221" s="2">
+        <v>20210808</v>
+      </c>
+    </row>
+    <row r="222" s="2" customFormat="1" spans="1:1">
+      <c r="A222" s="2">
+        <v>20210809</v>
+      </c>
+    </row>
+    <row r="223" s="2" customFormat="1" spans="1:1">
+      <c r="A223" s="2">
+        <v>20210810</v>
+      </c>
+    </row>
+    <row r="224" s="2" customFormat="1" spans="1:1">
+      <c r="A224" s="2">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="225" s="2" customFormat="1" spans="1:1">
+      <c r="A225" s="2">
+        <v>20210812</v>
+      </c>
+    </row>
+    <row r="226" s="2" customFormat="1" spans="1:1">
+      <c r="A226" s="2">
+        <v>20210813</v>
+      </c>
+    </row>
+    <row r="227" s="2" customFormat="1" spans="1:1">
+      <c r="A227" s="2">
+        <v>20210814</v>
+      </c>
+    </row>
+    <row r="228" s="2" customFormat="1" spans="1:1">
+      <c r="A228" s="2">
+        <v>20210815</v>
+      </c>
+    </row>
+    <row r="229" s="2" customFormat="1" spans="1:1">
+      <c r="A229" s="2">
+        <v>20210816</v>
+      </c>
+    </row>
+    <row r="230" s="2" customFormat="1" spans="1:1">
+      <c r="A230" s="2">
+        <v>20210817</v>
+      </c>
+    </row>
+    <row r="231" s="2" customFormat="1" spans="1:1">
+      <c r="A231" s="2">
+        <v>20210818</v>
+      </c>
+    </row>
+    <row r="232" s="2" customFormat="1" spans="1:1">
+      <c r="A232" s="2">
+        <v>20210819</v>
+      </c>
+    </row>
+    <row r="233" s="2" customFormat="1" spans="1:1">
+      <c r="A233" s="2">
+        <v>20210820</v>
+      </c>
+    </row>
+    <row r="234" s="2" customFormat="1" spans="1:1">
+      <c r="A234" s="2">
+        <v>20210821</v>
+      </c>
+    </row>
+    <row r="235" s="2" customFormat="1" spans="1:1">
+      <c r="A235" s="2">
+        <v>20210822</v>
+      </c>
+    </row>
+    <row r="236" s="2" customFormat="1" spans="1:1">
+      <c r="A236" s="2">
+        <v>20210823</v>
+      </c>
+    </row>
+    <row r="237" s="2" customFormat="1" spans="1:1">
+      <c r="A237" s="2">
+        <v>20210824</v>
+      </c>
+    </row>
+    <row r="238" s="2" customFormat="1" spans="1:1">
+      <c r="A238" s="2">
+        <v>20210825</v>
+      </c>
+    </row>
+    <row r="239" s="2" customFormat="1" spans="1:1">
+      <c r="A239" s="2">
+        <v>20210826</v>
+      </c>
+    </row>
+    <row r="240" s="2" customFormat="1" spans="1:1">
+      <c r="A240" s="2">
+        <v>20210827</v>
+      </c>
+    </row>
+    <row r="241" s="2" customFormat="1" spans="1:1">
+      <c r="A241" s="2">
+        <v>20210828</v>
+      </c>
+    </row>
+    <row r="242" s="2" customFormat="1" spans="1:1">
+      <c r="A242" s="2">
+        <v>20210829</v>
+      </c>
+    </row>
+    <row r="243" s="2" customFormat="1" spans="1:1">
+      <c r="A243" s="2">
+        <v>20210830</v>
+      </c>
+    </row>
+    <row r="244" s="2" customFormat="1" spans="1:1">
+      <c r="A244" s="2">
+        <v>20210831</v>
+      </c>
+    </row>
+    <row r="245" s="2" customFormat="1" spans="1:1">
+      <c r="A245" s="2">
+        <v>20210901</v>
+      </c>
+    </row>
+    <row r="246" s="2" customFormat="1" spans="1:1">
+      <c r="A246" s="2">
+        <v>20210902</v>
+      </c>
+    </row>
+    <row r="247" s="2" customFormat="1" spans="1:1">
+      <c r="A247" s="2">
+        <v>20210903</v>
+      </c>
+    </row>
+    <row r="248" s="2" customFormat="1" spans="1:1">
+      <c r="A248" s="2">
+        <v>20210904</v>
+      </c>
+    </row>
+    <row r="249" s="2" customFormat="1" spans="1:1">
+      <c r="A249" s="2">
+        <v>20210905</v>
+      </c>
+    </row>
+    <row r="250" s="2" customFormat="1" spans="1:1">
+      <c r="A250" s="2">
+        <v>20210906</v>
+      </c>
+    </row>
+    <row r="251" s="2" customFormat="1" spans="1:1">
+      <c r="A251" s="2">
+        <v>20210907</v>
+      </c>
+    </row>
+    <row r="252" s="2" customFormat="1" spans="1:1">
+      <c r="A252" s="2">
+        <v>20210908</v>
+      </c>
+    </row>
+    <row r="253" s="2" customFormat="1" spans="1:1">
+      <c r="A253" s="2">
+        <v>20210909</v>
+      </c>
+    </row>
+    <row r="254" s="2" customFormat="1" spans="1:1">
+      <c r="A254" s="2">
+        <v>20210910</v>
+      </c>
+    </row>
+    <row r="255" s="2" customFormat="1" spans="1:1">
+      <c r="A255" s="2">
+        <v>20210911</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" spans="1:1">
+      <c r="A256" s="2">
+        <v>20210912</v>
+      </c>
+    </row>
+    <row r="257" s="2" customFormat="1" spans="1:1">
+      <c r="A257" s="2">
+        <v>20210913</v>
+      </c>
+    </row>
+    <row r="258" s="2" customFormat="1" spans="1:1">
+      <c r="A258" s="2">
+        <v>20210914</v>
+      </c>
+    </row>
+    <row r="259" s="2" customFormat="1" spans="1:1">
+      <c r="A259" s="2">
+        <v>20210915</v>
+      </c>
+    </row>
+    <row r="260" s="2" customFormat="1" spans="1:1">
+      <c r="A260" s="2">
+        <v>20210916</v>
+      </c>
+    </row>
+    <row r="261" s="2" customFormat="1" spans="1:1">
+      <c r="A261" s="2">
+        <v>20210917</v>
+      </c>
+    </row>
+    <row r="262" s="2" customFormat="1" spans="1:1">
+      <c r="A262" s="2">
+        <v>20210918</v>
+      </c>
+    </row>
+    <row r="263" s="2" customFormat="1" spans="1:1">
+      <c r="A263" s="2">
+        <v>20210919</v>
+      </c>
+    </row>
+    <row r="264" s="2" customFormat="1" spans="1:1">
+      <c r="A264" s="2">
+        <v>20210920</v>
+      </c>
+    </row>
+    <row r="265" s="2" customFormat="1" spans="1:1">
+      <c r="A265" s="2">
+        <v>20210921</v>
+      </c>
+    </row>
+    <row r="266" s="2" customFormat="1" spans="1:1">
+      <c r="A266" s="2">
+        <v>20210922</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="1:1">
+      <c r="A267" s="2">
+        <v>20210923</v>
+      </c>
+    </row>
+    <row r="268" s="2" customFormat="1" spans="1:1">
+      <c r="A268" s="2">
+        <v>20210924</v>
+      </c>
+    </row>
+    <row r="269" s="2" customFormat="1" spans="1:1">
+      <c r="A269" s="2">
+        <v>20210925</v>
+      </c>
+    </row>
+    <row r="270" s="2" customFormat="1" spans="1:1">
+      <c r="A270" s="2">
+        <v>20210926</v>
+      </c>
+    </row>
+    <row r="271" s="2" customFormat="1" spans="1:1">
+      <c r="A271" s="2">
+        <v>20210927</v>
+      </c>
+    </row>
+    <row r="272" s="2" customFormat="1" spans="1:1">
+      <c r="A272" s="2">
+        <v>20210928</v>
+      </c>
+    </row>
+    <row r="273" s="2" customFormat="1" spans="1:1">
+      <c r="A273" s="2">
+        <v>20210929</v>
+      </c>
+    </row>
+    <row r="274" s="2" customFormat="1" spans="1:1">
+      <c r="A274" s="2">
+        <v>20210930</v>
+      </c>
+    </row>
+    <row r="275" s="2" customFormat="1" spans="1:1">
+      <c r="A275" s="2">
+        <v>20211001</v>
+      </c>
+    </row>
+    <row r="276" s="2" customFormat="1" spans="1:1">
+      <c r="A276" s="2">
+        <v>20211002</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" spans="1:1">
+      <c r="A277" s="2">
+        <v>20211003</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="1" spans="1:1">
+      <c r="A278" s="2">
+        <v>20211004</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" spans="1:1">
+      <c r="A279" s="2">
+        <v>20211005</v>
+      </c>
+    </row>
+    <row r="280" s="2" customFormat="1" spans="1:1">
+      <c r="A280" s="2">
+        <v>20211006</v>
+      </c>
+    </row>
+    <row r="281" s="2" customFormat="1" spans="1:1">
+      <c r="A281" s="2">
+        <v>20211007</v>
+      </c>
+    </row>
+    <row r="282" s="2" customFormat="1" spans="1:1">
+      <c r="A282" s="2">
+        <v>20211008</v>
+      </c>
+    </row>
+    <row r="283" s="2" customFormat="1" spans="1:1">
+      <c r="A283" s="2">
+        <v>20211009</v>
+      </c>
+    </row>
+    <row r="284" s="2" customFormat="1" spans="1:1">
+      <c r="A284" s="2">
+        <v>20211010</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="1" spans="1:1">
+      <c r="A285" s="2">
+        <v>20211011</v>
+      </c>
+    </row>
+    <row r="286" s="2" customFormat="1" spans="1:1">
+      <c r="A286" s="2">
+        <v>20211012</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" spans="1:1">
+      <c r="A287" s="2">
+        <v>20211013</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" spans="1:1">
+      <c r="A288" s="2">
+        <v>20211014</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" spans="1:1">
+      <c r="A289" s="2">
+        <v>20211015</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="1" spans="1:1">
+      <c r="A290" s="2">
+        <v>20211016</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" spans="1:1">
+      <c r="A291" s="2">
+        <v>20211017</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="1" spans="1:1">
+      <c r="A292" s="2">
+        <v>20211018</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" spans="1:1">
+      <c r="A293" s="2">
+        <v>20211019</v>
+      </c>
+    </row>
+    <row r="294" s="2" customFormat="1" spans="1:1">
+      <c r="A294" s="2">
+        <v>20211020</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" spans="1:1">
+      <c r="A295" s="2">
+        <v>20211021</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:1">
+      <c r="A296" s="2">
+        <v>20211022</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" spans="1:1">
+      <c r="A297" s="2">
+        <v>20211023</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" spans="1:1">
+      <c r="A298" s="2">
+        <v>20211024</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" spans="1:1">
+      <c r="A299" s="2">
+        <v>20211025</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" spans="1:1">
+      <c r="A300" s="2">
+        <v>20211026</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" spans="1:1">
+      <c r="A301" s="2">
+        <v>20211027</v>
+      </c>
+    </row>
+    <row r="302" s="2" customFormat="1" spans="1:1">
+      <c r="A302" s="2">
+        <v>20211028</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:1">
+      <c r="A303" s="2">
+        <v>20211029</v>
+      </c>
+    </row>
+    <row r="304" s="2" customFormat="1" spans="1:1">
+      <c r="A304" s="2">
+        <v>20211030</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" spans="1:1">
+      <c r="A305" s="2">
+        <v>20211031</v>
+      </c>
+    </row>
+    <row r="306" s="2" customFormat="1" spans="1:1">
+      <c r="A306" s="2">
+        <v>20211101</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" spans="1:1">
+      <c r="A307" s="2">
+        <v>20211102</v>
+      </c>
+    </row>
+    <row r="308" s="2" customFormat="1" spans="1:1">
+      <c r="A308" s="2">
+        <v>20211103</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" spans="1:1">
+      <c r="A309" s="2">
+        <v>20211104</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:1">
+      <c r="A310" s="2">
+        <v>20211105</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" spans="1:1">
+      <c r="A311" s="2">
+        <v>20211106</v>
+      </c>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:1">
+      <c r="A312" s="2">
+        <v>20211107</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:1">
+      <c r="A313" s="2">
+        <v>20211108</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:1">
+      <c r="A314" s="2">
+        <v>20211109</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:1">
+      <c r="A315" s="2">
+        <v>20211110</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:1">
+      <c r="A316" s="2">
+        <v>20211111</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" spans="1:1">
+      <c r="A317" s="2">
+        <v>20211112</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:1">
+      <c r="A318" s="2">
+        <v>20211113</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:1">
+      <c r="A319" s="2">
+        <v>20211114</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:1">
+      <c r="A320" s="2">
+        <v>20211115</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:1">
+      <c r="A321" s="2">
+        <v>20211116</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:1">
+      <c r="A322" s="2">
+        <v>20211117</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:1">
+      <c r="A323" s="2">
+        <v>20211118</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:1">
+      <c r="A324" s="2">
+        <v>20211119</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:1">
+      <c r="A325" s="2">
+        <v>20211120</v>
+      </c>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:1">
+      <c r="A326" s="2">
+        <v>20211121</v>
+      </c>
+    </row>
+    <row r="327" s="2" customFormat="1" spans="1:1">
+      <c r="A327" s="2">
+        <v>20211122</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:1">
+      <c r="A328" s="2">
+        <v>20211123</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:1">
+      <c r="A329" s="2">
+        <v>20211124</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:1">
+      <c r="A330" s="2">
+        <v>20211125</v>
+      </c>
+    </row>
+    <row r="331" s="2" customFormat="1" spans="1:1">
+      <c r="A331" s="2">
+        <v>20211126</v>
+      </c>
+    </row>
+    <row r="332" s="2" customFormat="1" spans="1:1">
+      <c r="A332" s="2">
+        <v>20211127</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:1">
+      <c r="A333" s="2">
+        <v>20211128</v>
+      </c>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:1">
+      <c r="A334" s="2">
+        <v>20211129</v>
+      </c>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:1">
+      <c r="A335" s="2">
+        <v>20211130</v>
+      </c>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:1">
+      <c r="A336" s="2">
+        <v>20211201</v>
+      </c>
+    </row>
+    <row r="337" s="2" customFormat="1" spans="1:1">
+      <c r="A337" s="2">
+        <v>20211202</v>
+      </c>
+    </row>
+    <row r="338" s="2" customFormat="1" spans="1:1">
+      <c r="A338" s="2">
+        <v>20211203</v>
+      </c>
+    </row>
+    <row r="339" s="2" customFormat="1" spans="1:1">
+      <c r="A339" s="2">
+        <v>20211204</v>
+      </c>
+    </row>
+    <row r="340" s="2" customFormat="1" spans="1:1">
+      <c r="A340" s="2">
+        <v>20211205</v>
+      </c>
+    </row>
+    <row r="341" s="2" customFormat="1" spans="1:1">
+      <c r="A341" s="2">
+        <v>20211206</v>
+      </c>
+    </row>
+    <row r="342" s="2" customFormat="1" spans="1:1">
+      <c r="A342" s="2">
+        <v>20211207</v>
+      </c>
+    </row>
+    <row r="343" s="2" customFormat="1" spans="1:1">
+      <c r="A343" s="2">
+        <v>20211208</v>
+      </c>
+    </row>
+    <row r="344" s="2" customFormat="1" spans="1:1">
+      <c r="A344" s="2">
+        <v>20211209</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:1">
+      <c r="A345" s="2">
+        <v>20211210</v>
+      </c>
+    </row>
+    <row r="346" s="2" customFormat="1" spans="1:1">
+      <c r="A346" s="2">
+        <v>20211211</v>
+      </c>
+    </row>
+    <row r="347" s="2" customFormat="1" spans="1:1">
+      <c r="A347" s="2">
+        <v>20211212</v>
+      </c>
+    </row>
+    <row r="348" s="2" customFormat="1" spans="1:1">
+      <c r="A348" s="2">
+        <v>20211213</v>
+      </c>
+    </row>
+    <row r="349" s="2" customFormat="1" spans="1:1">
+      <c r="A349" s="2">
+        <v>20211214</v>
+      </c>
+    </row>
+    <row r="350" s="2" customFormat="1" spans="1:1">
+      <c r="A350" s="2">
+        <v>20211215</v>
+      </c>
+    </row>
+    <row r="351" s="2" customFormat="1" spans="1:1">
+      <c r="A351" s="2">
+        <v>20211216</v>
+      </c>
+    </row>
+    <row r="352" s="2" customFormat="1" spans="1:1">
+      <c r="A352" s="2">
+        <v>20211217</v>
+      </c>
+    </row>
+    <row r="353" s="2" customFormat="1" spans="1:1">
+      <c r="A353" s="2">
+        <v>20211218</v>
+      </c>
+    </row>
+    <row r="354" s="2" customFormat="1" spans="1:1">
+      <c r="A354" s="2">
+        <v>20211219</v>
+      </c>
+    </row>
+    <row r="355" s="2" customFormat="1" spans="1:1">
+      <c r="A355" s="2">
+        <v>20211220</v>
+      </c>
+    </row>
+    <row r="356" s="2" customFormat="1" spans="1:1">
+      <c r="A356" s="2">
+        <v>20211221</v>
+      </c>
+    </row>
+    <row r="357" s="2" customFormat="1" spans="1:1">
+      <c r="A357" s="2">
+        <v>20211222</v>
+      </c>
+    </row>
+    <row r="358" s="2" customFormat="1" spans="1:1">
+      <c r="A358" s="2">
+        <v>20211223</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:1">
+      <c r="A359" s="2">
+        <v>20211224</v>
+      </c>
+    </row>
+    <row r="360" s="2" customFormat="1" spans="1:1">
+      <c r="A360" s="2">
+        <v>20211225</v>
+      </c>
+    </row>
+    <row r="361" s="2" customFormat="1" spans="1:1">
+      <c r="A361" s="2">
+        <v>20211226</v>
+      </c>
+    </row>
+    <row r="362" s="2" customFormat="1" spans="1:1">
+      <c r="A362" s="2">
+        <v>20211227</v>
+      </c>
+    </row>
+    <row r="363" s="2" customFormat="1" spans="1:1">
+      <c r="A363" s="2">
+        <v>20211228</v>
+      </c>
+    </row>
+    <row r="364" s="2" customFormat="1" spans="1:1">
+      <c r="A364" s="2">
+        <v>20211229</v>
+      </c>
+    </row>
+    <row r="365" s="2" customFormat="1" spans="1:1">
+      <c r="A365" s="2">
+        <v>20211230</v>
+      </c>
+    </row>
+    <row r="366" s="2" customFormat="1" spans="1:1">
+      <c r="A366" s="2">
+        <v>20211231</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
